--- a/Métricas.xlsx
+++ b/Métricas.xlsx
@@ -1,21 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Métricas Baseline" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Balanced Accuracy</t>
+  </si>
+  <si>
+    <t>F-score</t>
+  </si>
+  <si>
+    <t>AUC-ROC</t>
+  </si>
+  <si>
+    <t>Quadratic Weighted Kappa</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,15 +53,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -40,23 +87,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +434,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.55079999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.54339999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.67459999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3538</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3543</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>